--- a/biology/Botanique/Odontites/Odontites.xlsx
+++ b/biology/Botanique/Odontites/Odontites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odontites est un genre de plantes herbacées de la famille des Scrofulariacées selon la classification classique de Cronquist (1981)[1], des Orobanchacées selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odontites est un genre de plantes herbacées de la famille des Scrofulariacées selon la classification classique de Cronquist (1981), des Orobanchacées selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces d'Odontites semblant méconnues, des efforts d'observation de leurs populations sont nécessaires.
-En 2014, une Mission Odontites 2014 de Tela Botanica a ainsi permis d'ajouter 60 observations de l'euphraise jaune, Odontites luteus, aux 592 données disponibles du Conservatoire Botanique National Méditerranéen de Porquerolles (récoltées depuis 1990) ; « Sur 39 communes prospectées lors de la mission, on compte 21 communes où l’espèce avait déjà été vue et 18 communes sur lesquelles la présence de l’espèce n’avait pas encore été notée »[2]. Elle a été repérée dans le Gard, l’Hérault, et les Pyrénées Orientales sur 5 départements prospectés. L’Hérault compte plus d’observations (27 données sur l’Hérault, 20 sur le Gard, 13 dans les Pyrénées Orientales), peut-être en raison d'une pression d'observation plus importante[2].  
+En 2014, une Mission Odontites 2014 de Tela Botanica a ainsi permis d'ajouter 60 observations de l'euphraise jaune, Odontites luteus, aux 592 données disponibles du Conservatoire Botanique National Méditerranéen de Porquerolles (récoltées depuis 1990) ; « Sur 39 communes prospectées lors de la mission, on compte 21 communes où l’espèce avait déjà été vue et 18 communes sur lesquelles la présence de l’espèce n’avait pas encore été notée ». Elle a été repérée dans le Gard, l’Hérault, et les Pyrénées Orientales sur 5 départements prospectés. L’Hérault compte plus d’observations (27 données sur l’Hérault, 20 sur le Gard, 13 dans les Pyrénées Orientales), peut-être en raison d'une pression d'observation plus importante.  
 Des pieds de l'espèce "Odontite vernus" ont été identifiés dans le Pas-de-Calais (région Hauts-de-France) le 6 août 2023. 
 </t>
         </is>
@@ -544,15 +558,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 juillet 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 juillet 2013) :
 Odontites gracilis
 Odontites luteus
 Odontites procumbens
 Odontites semicomposita
 Odontites tenuissima
-Selon NCBI  (4 avril 2021)[4] :
+Selon NCBI  (4 avril 2021) :
 Odontites alshehbazianus
 Odontites aucheri
 Odontites bocconei
@@ -586,7 +602,7 @@
 Odontites viscosus
 Odontites vulcanicus
 Odontites vulgaris
-Selon Tropicos                                           (11 juillet 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 Odontites aucheri Boiss.
 Odontites bocconei (Guss.) Walp.
 Odontites cebennensis Coste &amp; Soulié
